--- a/APP_PERSONAS/src/test/resources/datadriven/administrarfacturas/ConsultarFacturas.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/administrarfacturas/ConsultarFacturas.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\administrarfacturas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\administrarfacturas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF44CE2-FA55-4305-8F7F-B3BFDE3F7748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94402AB2-3B2A-4CAA-A0A3-E20A6773E60C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
     <sheet name="Prueba" sheetId="3" r:id="rId2"/>
     <sheet name="Listas" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -541,17 +541,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="6" width="11" style="1"/>
-    <col min="7" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11" style="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1"/>
+    <col min="7" max="8" width="13.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1"/>
     <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.6640625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
@@ -685,7 +687,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
@@ -779,12 +781,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
